--- a/biology/Botanique/Sphenostylis_schweinfurthii/Sphenostylis_schweinfurthii.xlsx
+++ b/biology/Botanique/Sphenostylis_schweinfurthii/Sphenostylis_schweinfurthii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sphenostylis schweinfurthii est une espèce de plantes de la famille des Fabaceae et du genre Sphenostylis, présente en Afrique tropicale[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sphenostylis schweinfurthii est une espèce de plantes de la famille des Fabaceae et du genre Sphenostylis, présente en Afrique tropicale.
 Son épithète spécifique schweinfurthii rend hommage au botaniste allemand Georg August Schweinfurth, explorateur de l'Afrique.
 </t>
         </is>
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,9 +552,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été observée en Afrique subsaharienne, au Sénégal, au Niger jusqu'au Soudan et en Éthiopie, également en Angola[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été observée en Afrique subsaharienne, au Sénégal, au Niger jusqu'au Soudan et en Éthiopie, également en Angola.
 </t>
         </is>
       </c>
@@ -569,9 +585,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On ne lui connaît pas d'utilisation médicinale, mais la plante à l'état sauvage est parfois consommée par l'homme (graines, fleurs). Les fibres de la tige permettent de fabriquer des cordes. Les fleurs jaunes sont appréciées pour leurs qualités ornementales[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On ne lui connaît pas d'utilisation médicinale, mais la plante à l'état sauvage est parfois consommée par l'homme (graines, fleurs). Les fibres de la tige permettent de fabriquer des cordes. Les fleurs jaunes sont appréciées pour leurs qualités ornementales.
 </t>
         </is>
       </c>
@@ -600,9 +618,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (17 juin 2020)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (17 juin 2020) :
 sous-espèce Sphenostylis schweinfurthii subsp. benguellensis
 sous-espèce Sphenostylis schweinfurthii subsp. schweinfurthii</t>
         </is>
